--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H2">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I2">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J2">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N2">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O2">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P2">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q2">
-        <v>50.37196828512199</v>
+        <v>6.15508459522</v>
       </c>
       <c r="R2">
-        <v>453.347714566098</v>
+        <v>55.39576135698</v>
       </c>
       <c r="S2">
-        <v>0.01260698443463581</v>
+        <v>0.001656973169124334</v>
       </c>
       <c r="T2">
-        <v>0.0126069844346358</v>
+        <v>0.001656973169124334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H3">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I3">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J3">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>196.907845</v>
       </c>
       <c r="O3">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P3">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q3">
-        <v>119.8216398439683</v>
+        <v>72.45574215166111</v>
       </c>
       <c r="R3">
-        <v>1078.394758595715</v>
+        <v>652.1016793649501</v>
       </c>
       <c r="S3">
-        <v>0.02998869410651198</v>
+        <v>0.01950537297042663</v>
       </c>
       <c r="T3">
-        <v>0.02998869410651197</v>
+        <v>0.01950537297042663</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H4">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I4">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J4">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N4">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O4">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P4">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q4">
-        <v>17.47584426934133</v>
+        <v>10.28544967518778</v>
       </c>
       <c r="R4">
-        <v>157.282598424072</v>
+        <v>92.56904707669</v>
       </c>
       <c r="S4">
-        <v>0.004373815520541793</v>
+        <v>0.002768883819631011</v>
       </c>
       <c r="T4">
-        <v>0.004373815520541792</v>
+        <v>0.002768883819631011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H5">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I5">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J5">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N5">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O5">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P5">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q5">
-        <v>650.5653109881207</v>
+        <v>131.461461781078</v>
       </c>
       <c r="R5">
-        <v>5855.087798893086</v>
+        <v>1183.153156029702</v>
       </c>
       <c r="S5">
-        <v>0.1628220422699604</v>
+        <v>0.03538994656779767</v>
       </c>
       <c r="T5">
-        <v>0.1628220422699604</v>
+        <v>0.03538994656779767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H6">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I6">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J6">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>196.907845</v>
       </c>
       <c r="O6">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P6">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q6">
         <v>1547.523454850223</v>
       </c>
       <c r="R6">
-        <v>13927.71109365201</v>
+        <v>13927.711093652</v>
       </c>
       <c r="S6">
-        <v>0.3873107359454325</v>
+        <v>0.4165994477588103</v>
       </c>
       <c r="T6">
-        <v>0.3873107359454324</v>
+        <v>0.4165994477588102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H7">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I7">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J7">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N7">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O7">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P7">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q7">
-        <v>225.7044631949005</v>
+        <v>219.6785809290034</v>
       </c>
       <c r="R7">
-        <v>2031.340168754104</v>
+        <v>1977.107228361031</v>
       </c>
       <c r="S7">
-        <v>0.05648881215480279</v>
+        <v>0.05913834469689477</v>
       </c>
       <c r="T7">
-        <v>0.05648881215480279</v>
+        <v>0.05913834469689477</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H8">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I8">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J8">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.592778</v>
+        <v>5.575746</v>
       </c>
       <c r="N8">
-        <v>82.778334</v>
+        <v>16.727238</v>
       </c>
       <c r="O8">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="P8">
-        <v>0.2684079248986126</v>
+        <v>0.069238947264747</v>
       </c>
       <c r="Q8">
-        <v>371.5028074554673</v>
+        <v>119.582294039274</v>
       </c>
       <c r="R8">
-        <v>3343.525267099206</v>
+        <v>1076.240646353466</v>
       </c>
       <c r="S8">
-        <v>0.09297889819401636</v>
+        <v>0.03219202752782499</v>
       </c>
       <c r="T8">
-        <v>0.09297889819401636</v>
+        <v>0.032192027527825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H9">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I9">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J9">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>196.907845</v>
       </c>
       <c r="O9">
-        <v>0.6384717294830753</v>
+        <v>0.8150593598279631</v>
       </c>
       <c r="P9">
-        <v>0.6384717294830752</v>
+        <v>0.815059359827963</v>
       </c>
       <c r="Q9">
-        <v>883.7072902132338</v>
+        <v>1407.685585595768</v>
       </c>
       <c r="R9">
-        <v>7953.365611919106</v>
+        <v>12669.17027036191</v>
       </c>
       <c r="S9">
-        <v>0.2211722994311308</v>
+        <v>0.3789545390987262</v>
       </c>
       <c r="T9">
-        <v>0.2211722994311308</v>
+        <v>0.3789545390987261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H10">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I10">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J10">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.572925333333334</v>
+        <v>9.317346333333333</v>
       </c>
       <c r="N10">
-        <v>28.718776</v>
+        <v>27.952039</v>
       </c>
       <c r="O10">
-        <v>0.09312034561831214</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="P10">
-        <v>0.09312034561831213</v>
+        <v>0.11570169290729</v>
       </c>
       <c r="Q10">
-        <v>128.8876617241982</v>
+        <v>199.8279062386303</v>
       </c>
       <c r="R10">
-        <v>1159.988955517784</v>
+        <v>1798.451156147673</v>
       </c>
       <c r="S10">
-        <v>0.03225771794296755</v>
+        <v>0.05379446439076421</v>
       </c>
       <c r="T10">
-        <v>0.03225771794296755</v>
+        <v>0.05379446439076421</v>
       </c>
     </row>
   </sheetData>
